--- a/Study 3/Shocks/GCAM/NDC_EI - 2070.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2070.xlsx
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03520280988265238</v>
+        <v>0.03520280988265239</v>
       </c>
     </row>
     <row r="22">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.00725283492012287</v>
+        <v>0.007252834920122871</v>
       </c>
     </row>
     <row r="26">
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.01353395195787984</v>
+        <v>0.01353395195787985</v>
       </c>
     </row>
     <row r="30">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3428776980429973</v>
+        <v>0.3428776980429974</v>
       </c>
     </row>
   </sheetData>
